--- a/UFC Fighters (3_2022).xlsx
+++ b/UFC Fighters (3_2022).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dagye\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9963471F-3CCB-4C90-8C27-5B76D44A6FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EAB131-B67A-4F91-94D7-2C726C41ACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5115" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5538,7 +5538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5680,6 +5680,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5895,10 +5902,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6094,8 +6102,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6315,17 +6327,17 @@
   <dimension ref="A1:AH1449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="23" max="23" width="15" customWidth="1"/>
     <col min="24" max="24" width="14.42578125" customWidth="1"/>
     <col min="34" max="34" width="13.140625" customWidth="1"/>
   </cols>
@@ -6400,7 +6412,7 @@
       <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="83" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="7" t="s">
@@ -68188,9 +68200,10 @@
     <hyperlink ref="A1447" r:id="rId1424" xr:uid="{00000000-0004-0000-0000-00008F050000}"/>
     <hyperlink ref="A1448" r:id="rId1425" xr:uid="{00000000-0004-0000-0000-000090050000}"/>
     <hyperlink ref="A1449" r:id="rId1426" xr:uid="{00000000-0004-0000-0000-000091050000}"/>
+    <hyperlink ref="X1" r:id="rId1427" xr:uid="{0656B374-3B45-4756-B778-A2FD3D8F9225}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1427"/>
+  <legacyDrawing r:id="rId1428"/>
 </worksheet>
 </file>
 
